--- a/new-ds.xlsx
+++ b/new-ds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHENG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\work\pythonProject\建筑安全0812\code\code_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0397E73-14B9-4C7E-9740-9C5A0B7482B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D528E563-B7C5-4CB1-9B08-02E85BFA2133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="4440" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15576" yWindow="6216" windowWidth="8124" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>RowIndex</t>
   </si>
@@ -382,9 +382,6 @@
     <t>X1, X2, X3, X4, X5, X6, X16, X17, X18, X21, X22</t>
   </si>
   <si>
-    <t>事故发生的原因和事故性质一)直接原因安拆人员在将塔身标准节连接螺栓拆除、塔帽与顶升套架在安全销未连接的情况下，实施顶升作业，导致塔顶部分即起重臂、平衡臂)失衡倾翻坠地。二)间接原因1吉林省铭万机械设备安装有限公司，违反《建筑起重机械安全监督管理规定》，安排建筑施工特种作业操作资格证过期人员组织拆卸塔吊;在施工过程中未按照《建筑施工塔式起重机安装、使用、拆卸安全技术规程》1962010操作;违反《中华人民共和国安全生产法》，主要负责人未认真督促、检查本单位的安全生产工作，公司未对相关作业人员进行安全教育和培训。同时，该公司还存在未与吉林新龙建筑工程有限公司签订塔吊拆卸合同等管理混乱问题。2吉林新龙建筑工程有限公司，项目经理及安全管理人员未严格按照《建筑施工企业主要负责人、项目负责人和专职安全生产管理人员安全生产管理规定》履行相关职责，管理秩序混乱，在施工过程中存在将起重设备安拆交给无资格人员全权办理、未安排专职安全管理人员进行现场监督检查等问题。3农安县建设监理有限公司，在实施项目监理过程中存在失职行为。对起重设备安装工人与安装告知中上报的人员不符问题未认真履行核查义务;未对起重设备安装方案进行审核，且监理工作时间与施工活动时间不同步;特别是9月11日、9月13日安拆工人两次拆除起重设备标准节，该监理公司均未发现。4农安县建筑工程安全生产监督管理站，日常监管抽查工作有漏洞，未发现事故塔吊与登记塔吊信息不一致问题;对抽查中发现未办理安全监督登记手续、升降机未检测问题既未严格依法行政，也未移交有关部门处理。5农安县住房和城乡建设局，对下属的安监站工作指导、监督、督促、检查不力，未发现所属工作人员未严格依法行政等问题。三)事故性质经调查组认定，此事故性质为生产安全责任事故，事故类别为起重伤害，事故等级为较大事故。</t>
-  </si>
-  <si>
     <t>X2, X4, X5, X6, X16, X17, X18, X20, X21, X22</t>
   </si>
   <si>
@@ -423,6 +420,14 @@
   </si>
   <si>
     <t>label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事故发生的原因和事故性质一)直接原因安拆人员在将塔身标准节连接螺栓拆除、塔帽与顶升套架在安全销未连接的情况下，实施顶升作业，导致塔顶部分即起重臂、平衡臂)失衡倾翻坠地。二)间接原因1吉林省铭万机械设备安装有限公司，违反《建筑起重机械安全监督管理规定》，安排建筑施工特种作业操作资格证过期人员组织拆卸塔吊;在施工过程中未按照《建筑施工塔式起重机安装、使用、拆卸安全技术规程》1962010操作;违反《中华人民共和国安全生产法》，主要负责人未认真督促、检查本单位的安全生产工作，公司未对相关作业人员进行安全教育和培训。同时，该公司还存在未与吉林新龙建筑工程有限公司签订塔吊拆卸合同等管理混乱问题。2吉林新龙建筑工程有限公司，项目经理及安全管理人员未严格按照《建筑施工企业主要负责人、项目负责人和专职安全生产管理人员安全生产管理规定》履行相关职责，管理秩序混乱，在施工过程中存在将起重设备安拆交给无资格人员全权办理、未安排专职安全管理人员进行现场监督检查等问题。3农安县建设监理有限公司，在实施项目监理过程中存在失职行为。对起重设备安装工人与安装告知中上报的人员不符问题未认真履行核查义务;未对起重设备安装方案进行审核，且监理工作时间与施工活动时间不同步;特别是9月11日、9月13日安拆工人两次拆除起重设备标准节，该监理公司均未发现。4农安县建筑工程安全生产监督管理站，日常监管抽查工作有漏洞，未发现事故塔吊与登记塔吊信息不一致问题;对抽查中发现未办理安全监督登记手续、升降机未检测问题既未严格依法行政，也未移交有关部门处理。5农安县住房和城乡建设局，对下属的安监站工作指导、监督、督促、检查不力，未发现所属工作人员未严格依法行政等问题。三)事故性质经调查组认定，此事故性质为生产安全责任事故，事故类别为起重伤害，事故等级为较大事故。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事故原因和责任分析一)直接原因事故设备电气控制柜面板上的点动上行按钮开关被卡阻不能正常复位，多功能安全保护装置被短接失效，应急开关故障失效并且电路连接不正确，致使吊笼提升冲顶;防坠器型式安装错误导致吊笼坠落。物的不安全状态是该起事故发生的直接原因。从业人员违规乘坐物料提升机加重了事故的后果。二)间接原因及责任认定1建设单位违法违规开发建设三合项目;物料提升机安装、使用、监理单位安全生产主体责任不落实，违法违规安装使用管理起重设备。1)建设单位。不具备事故项目开发建设资质，违规开发建设;未依法履行基本的建设程序，未取得施工许可证擅自开工建设;违法将项目监理工程发包给不具备资质条件的监理单位;未督促参建单位建立健全安全生产责任制，督促其足额配备满足条件的人员;没有按照有关规定和合同约定向施工单位及时足额拨付安全文明施工措施费，无法保障施工现场施工安全所需资金。2)设备安装单位。未建立安全生产责任制;未按规定制定物料提升机专项施工方案;未按规定进行技术交底;未按规定建立事故设备技术档案;未按规定对物料提升机进行自检、验收和交付使用;未建立物料提升机安装记录。3)设备使用单位。未建立安全生产责任制;违法分包工程项目;未按要求提取安全文明经费;未按规定使用、养护物料提升设备;未按规定建立应急救援体系;对行业主管部门下达的整改要求不整改不落实;未按规定组织事故设备验收、交接;未建立物料提升机工程档案。实际使用人。未建立安全生产责任制;违法违规开工建设;聘请无证人员从事特种作业，违规操作;未按规定落实安全施工措施，施工现场管理混乱;未依法履行行业主管部门下达的整改指令，擅自使用检测不合格的物料提升设备。4)监理公司。未建立安全生产责任制，未落实安全生产主体责任;超资质范围承揽三合安置区项目监理业务;未按规定足额配备安全监理;未按规定履行监理职责，未依法依规对危险性较大的分部分项工程进行督促整改，未及时发现并正确处置重大事故隐患;未按规定组织工序验收，没有形成验收记录。2息县建设行政管理部门未依法履行行业监管职责，未依法对事故项目和物料提升机进行监督检查，未对违法违规行为立案查处。1)县住建局。未依法依规履行行业监管职责，未按照上级要求开展安全生产大检查和隐患排查治理工作，全县建筑业市场管理混乱;放任所属企业违法承揽监理项目，监理工作形同虚设;放任事故项目施工单位违法分包工程项目、违规施工作业、违规使用不符合要求物料提升设备;未依法依规对违法建设、违法违规安装使用物料提升机行为进行监督检查并立案查处;行业领域管理松懈，未按要求建立应急值班制度，未按规定建立应急救援体系，局内各部门单位)工作衔接机制不健全，信息流转不通畅。建设管理股。未依法履行监督管理职责，未按规定指导和规范全县建筑市场;未按规定对事故项目招标投标、施工合同备案、安全生产等工作进行管理和监督;未按规定管理监督三合项目参建各方履行职责。2)县工程监督站。未依法依规履行安全监督责任，未按规定制定监督检查计划，未建立日常巡查制度，未建立日常巡查记录;未按照上级要求开展全县行业领域安全生产大检查工作;未按规定对事故项目参建各方实施安全监管;未对事故项目违法施工、违规安装使用物料提升机行为进行监督检查，采取监管措施;对事故项目违法建设和违规安装使用物料提升机行为未依法移交相关单位协助落实整改措施或立案查处;对3号楼物料提升机安装拆卸专项施工方案、技术交底未提出整改要求或制止违规行为;事故项目整改意见书、停工文书未下达至适格主体;违规为不符合备案条件的物料提升机进行备案登记;对检测不合格的物料提升机未依法采取监管措施。3)县监察大队。未依法履行执法监察职责，未按规定制定执法监察计划，未建立日常巡查制度，未建立日常巡查记录;未按规定采取措施制止事故项目违法建设行为;停工文书未送达至适格主体;未对事故项目违法建设行为、事故设备违规安装使用行为进行立案查处。3政府未能依法履行安全生产属地管理和行业管理职责。息县人民政府安全生产“红线意识”不牢，未依法履行安全生产属地领导责任，未按照上级要求组织开展全县安全生产大检查和隐患排查治理工作，违规安排龙湖办事处开发建设事故项目，对县住建局等相关部门对事故项目违法违规行为的处理意见和龙湖办事处办理项目许可手续的请示报告没有及时研究处理，全县政府投资项目存在不办理手续就擅自开工的现象。三)事故性质经调查认定，息县三合安置区“219”较大起重伤害事故是一起生产安全责任事故。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -790,13 +795,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B45" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="248" customWidth="1"/>
     <col min="3" max="3" width="119.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
@@ -810,13 +816,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1487,10 +1493,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
@@ -1507,10 +1513,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>
@@ -1527,10 +1533,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1547,10 +1553,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1567,10 +1573,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>47</v>
@@ -1587,10 +1593,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>47</v>
@@ -1607,10 +1613,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
